--- a/ppc_data_for_dbms_ex.xlsx
+++ b/ppc_data_for_dbms_ex.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maintenance-BotVerse\OneDrive - Addverb Technologies Limited\Desktop\Maintenance\APP103\addverbmes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diwakar Singh\Downloads\addverbmes_working_assign800\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFCAC0-4FF4-4F77-8042-89EE93E16838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>sap_id</t>
   </si>
@@ -173,16 +172,19 @@
   </si>
   <si>
     <t>qty</t>
+  </si>
+  <si>
+    <t>Band Saw-CNC-VMC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -530,28 +532,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="30.58203125" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.4140625" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -583,7 +585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -615,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -647,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -679,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -839,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -871,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -903,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -935,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -967,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="28">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H19" s="3">
         <v>45820</v>
@@ -1159,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="28">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
